--- a/data/georgia_census/qvemo-qartli/walka/education_graduates.xlsx
+++ b/data/georgia_census/qvemo-qartli/walka/education_graduates.xlsx
@@ -1835,13 +1835,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FACDC050-749B-4084-819E-D42BD92A5069}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F705BD-F46E-4D69-94F2-EFA2A75DC353}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20BE2144-1561-47AB-B985-8BFCCC0734FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEE1A6D7-D5D7-4158-80C5-02D8B6F8E699}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8980192A-03F7-42EA-867F-F3362063935D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7328BB25-41B4-4023-A3F9-DD023C4F309B}"/>
 </file>